--- a/IPL/Royal Challengers Bangalore/Isuru Udana .xlsx
+++ b/IPL/Royal Challengers Bangalore/Isuru Udana .xlsx
@@ -408,13 +408,13 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="str">
+        <v>2</v>
+      </c>
+      <c r="E2" t="str">
         <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -428,13 +428,13 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C3" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>

--- a/IPL/Royal Challengers Bangalore/Isuru Udana .xlsx
+++ b/IPL/Royal Challengers Bangalore/Isuru Udana .xlsx
@@ -408,13 +408,13 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C2" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -428,16 +428,16 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" t="str">
+        <v>5</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
         <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -448,16 +448,16 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C4" t="str">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -468,10 +468,10 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C5" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
         <v>1</v>
-      </c>
-      <c r="D5" t="str">
-        <v>3</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
